--- a/testcases/test-data/spreadsheet/FormulaEvalTestData_Copy.xlsx
+++ b/testcases/test-data/spreadsheet/FormulaEvalTestData_Copy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\npoi\testcases\test-data\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF9D02C-3AAD-4F6E-A1D3-B694972EE3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" tabRatio="452"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="452" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EverythingTests" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,27 @@
     <sheet name="StatsLibTests" sheetId="3" r:id="rId3"/>
     <sheet name="misc" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amol</author>
   </authors>
   <commentList>
-    <comment ref="B420" authorId="0" shapeId="0">
+    <comment ref="B420" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="1223">
   <si>
     <t>EXPECTED VALUE</t>
   </si>
@@ -583,15 +594,6 @@
     <t>EXPECTED VALUE</t>
   </si>
   <si>
-    <t>Usdollar</t>
-  </si>
-  <si>
-    <t>FORMULA</t>
-  </si>
-  <si>
-    <t>EXPECTED VALUE</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -3722,20 +3724,36 @@
   </si>
   <si>
     <t>Not supported by XSSF</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>$1.00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>($1.00)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>$3.00</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="165" formatCode="0.00000000000"/>
-    <numFmt numFmtId="166" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000000000"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="181" formatCode="0.0000"/>
+    <numFmt numFmtId="182" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -3809,7 +3827,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3947,7 +3965,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -3987,9 +4005,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -4012,7 +4030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyProtection="1">
@@ -4054,13 +4072,13 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -4072,14 +4090,14 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -4092,6 +4110,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4126,14 +4150,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4149,7 +4170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4224,6 +4245,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4259,6 +4297,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4434,15 +4489,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:AL1504"/>
+  <dimension ref="A2:AL1500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <pane xSplit="16230" ySplit="3840" topLeftCell="AQ1000" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <pane xSplit="16230" ySplit="3840" topLeftCell="AQ1422" activePane="bottomLeft"/>
       <selection activeCell="A6" sqref="A6:A21"/>
       <selection pane="topRight" activeCell="AQ16" sqref="AQ16"/>
-      <selection pane="bottomLeft" activeCell="L1008" sqref="L1008"/>
+      <selection pane="bottomLeft" activeCell="C1440" sqref="C1440"/>
       <selection pane="bottomRight" activeCell="AI1443" sqref="AI1443"/>
     </sheetView>
   </sheetViews>
@@ -4455,111 +4510,115 @@
     <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="2" customWidth="1"/>
-    <col min="8" max="28" width="9" style="2"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9" style="2"/>
+    <col min="13" max="14" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="28" width="9" style="2"/>
     <col min="29" max="35" width="5.85546875" style="2" customWidth="1"/>
     <col min="36" max="37" width="5.28515625" style="2" customWidth="1"/>
     <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:38" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="59" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>1107</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="G6" s="62" t="s">
         <v>1108</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="62" t="s">
         <v>1109</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="28" t="s">
         <v>1110</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="60" t="s">
-        <v>1112</v>
-      </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="28" t="s">
-        <v>1113</v>
       </c>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
       <c r="S6" s="30"/>
-      <c r="T6" s="54" t="s">
+      <c r="T6" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
       <c r="AA6" s="31" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="AL6" s="52" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="4">
         <v>0</v>
       </c>
@@ -4594,13 +4653,13 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="P7" s="4">
         <v>1</v>
@@ -4667,7 +4726,7 @@
       </c>
     </row>
     <row r="8" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="5">
         <v>1</v>
       </c>
@@ -4676,7 +4735,7 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F8" s="5">
         <f>B8</f>
@@ -4770,7 +4829,7 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -4779,7 +4838,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F9" s="4">
         <f>B11</f>
@@ -4804,7 +4863,7 @@
         <v>3.5</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="N9" s="4">
         <v>345</v>
@@ -4813,7 +4872,7 @@
         <v>454</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="Q9" s="4">
         <f>H7</f>
@@ -4877,7 +4936,7 @@
       </c>
     </row>
     <row r="10" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="5">
         <v>534</v>
       </c>
@@ -4886,23 +4945,23 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="F10" s="5">
         <f>C8</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="H10" s="5">
         <v>3</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>1119</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>1122</v>
       </c>
       <c r="K10" s="5">
         <v>4</v>
@@ -4911,7 +4970,7 @@
         <v>4.5</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="N10" s="5">
         <v>1.0000000000000001E-5</v>
@@ -4920,12 +4979,12 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="T10" s="3">
         <v>2</v>
@@ -4977,7 +5036,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="4">
         <v>9999999999</v>
       </c>
@@ -4986,14 +5045,14 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F11" s="4">
         <f>D7</f>
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4">
@@ -5061,7 +5120,7 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="5">
         <v>-9999999999</v>
       </c>
@@ -5069,14 +5128,14 @@
         <v>999999.99999000004</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>E9</f>
         <v>sp ace s</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="H12" s="5">
         <v>545</v>
@@ -5146,7 +5205,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="4">
         <v>-534</v>
       </c>
@@ -5194,7 +5253,7 @@
       </c>
     </row>
     <row r="14" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="5">
         <v>-2</v>
       </c>
@@ -5240,7 +5299,7 @@
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="4">
         <v>-1</v>
       </c>
@@ -5283,7 +5342,7 @@
       </c>
     </row>
     <row r="16" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="5" t="b">
         <v>1</v>
       </c>
@@ -5326,7 +5385,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="4" t="b">
         <v>0</v>
       </c>
@@ -5369,7 +5428,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="5" t="str">
         <f>"TRUE"</f>
         <v>TRUE</v>
@@ -5411,7 +5470,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="4" t="str">
         <f>"FALSE"</f>
         <v>FALSE</v>
@@ -5419,7 +5478,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="7"/>
@@ -5452,7 +5511,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="5"/>
       <c r="C20" s="40">
         <v>36885</v>
@@ -5478,14 +5537,14 @@
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="61"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D23" s="1">
         <f>0+0</f>
@@ -5522,7 +5581,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -5551,10 +5610,10 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>0&amp;1</f>
@@ -5583,19 +5642,19 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="H28" s="2" t="e">
         <v>#VALUE!</v>
@@ -5606,10 +5665,10 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D31" s="1">
         <f>0/1</f>
@@ -5670,7 +5729,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -5729,10 +5788,10 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D35" s="1" t="b">
         <f>B8=B8</f>
@@ -5789,7 +5848,7 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D36" s="1" t="b">
         <v>1</v>
@@ -5847,10 +5906,10 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D39" s="1" t="b">
         <f>2&gt;=2</f>
@@ -5891,7 +5950,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>1</v>
@@ -5937,10 +5996,10 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D43" s="1" t="b">
         <f>B7&gt;B11</f>
@@ -5993,7 +6052,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D44" s="1" t="b">
         <v>0</v>
@@ -6048,13 +6107,13 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -6067,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -6091,10 +6150,10 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D51" s="1" t="b">
         <f>B7&lt;=C7</f>
@@ -6139,7 +6198,7 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D52" s="1" t="b">
         <v>1</v>
@@ -6188,10 +6247,10 @@
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D55" s="1" t="b">
         <f>B7&lt;B8</f>
@@ -6216,7 +6275,7 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>1</v>
@@ -6246,10 +6305,10 @@
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D59" s="1">
         <f>1*0</f>
@@ -6310,7 +6369,7 @@
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
@@ -6364,10 +6423,10 @@
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D63" s="1" t="b">
         <f>B7&lt;&gt;B7</f>
@@ -6440,7 +6499,7 @@
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D64" s="1" t="b">
         <v>0</v>
@@ -6510,7 +6569,7 @@
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>2</v>
@@ -6571,10 +6630,10 @@
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D71" s="1">
         <f>2^5</f>
@@ -6639,7 +6698,7 @@
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D72" s="1">
         <v>32</v>
@@ -6703,13 +6762,13 @@
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -6722,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -6739,10 +6798,10 @@
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D79" s="1">
         <f>B10-C9</f>
@@ -6799,7 +6858,7 @@
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D80" s="1">
         <v>532.9</v>
@@ -6850,10 +6909,10 @@
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D83" s="1">
         <f>-B9</f>
@@ -6906,7 +6965,7 @@
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D84" s="1">
         <v>-2</v>
@@ -6954,10 +7013,10 @@
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D87" s="1">
         <f>2</f>
@@ -7007,7 +7066,7 @@
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D88" s="2">
         <v>2</v>
@@ -7034,10 +7093,10 @@
         <v>0</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="N88" s="2" t="e">
         <v>#VALUE!</v>
@@ -7056,7 +7115,7 @@
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91" s="25" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -7076,17 +7135,17 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B94" s="63" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C94" s="63"/>
+      <c r="B94" s="55" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C94" s="55"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D96" s="1">
         <f>ABS(B7)</f>
@@ -7151,7 +7210,7 @@
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -7201,23 +7260,23 @@
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D104" s="1">
         <f>ACOS(0)</f>
@@ -7278,7 +7337,7 @@
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D105" s="1">
         <v>1.5707963267948966</v>
@@ -7325,10 +7384,10 @@
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="D108" s="1">
         <f>ACOSH(B9)</f>
@@ -7381,7 +7440,7 @@
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D109" s="1">
         <v>1.3169578969248166</v>
@@ -7422,80 +7481,80 @@
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C113" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C117" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C121" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C125" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D128" s="1" t="str">
         <f>ADDRESS(2,3)</f>
@@ -7512,43 +7571,43 @@
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F129" s="44" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D136" s="1" t="b">
         <f>AND(B7:B9,C9,D7,E7)</f>
@@ -7605,7 +7664,7 @@
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D137" s="1" t="b">
         <v>0</v>
@@ -7649,68 +7708,68 @@
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C141" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C145" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C149" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="152" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="153" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C153" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="156" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D156" s="1">
         <f>ASIN(B7)</f>
@@ -7767,7 +7826,7 @@
     </row>
     <row r="157" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D157" s="1">
         <v>0</v>
@@ -7811,10 +7870,10 @@
     </row>
     <row r="160" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D160" s="1">
         <f>ASINH(B7)</f>
@@ -7871,7 +7930,7 @@
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C161" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D161" s="1">
         <v>0</v>
@@ -7915,10 +7974,10 @@
     </row>
     <row r="164" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D164" s="1">
         <f>ATAN(B7)</f>
@@ -7975,7 +8034,7 @@
     </row>
     <row r="165" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C165" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D165" s="1">
         <v>0</v>
@@ -8019,10 +8078,10 @@
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D168" s="1" t="e">
         <f>ATAN2(B7,B7)</f>
@@ -8075,7 +8134,7 @@
     </row>
     <row r="169" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C169" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D169" s="1" t="e">
         <v>#DIV/0!</v>
@@ -8116,10 +8175,10 @@
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D172" s="1">
         <f>ATANH(B7)</f>
@@ -8168,7 +8227,7 @@
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C173" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D173" s="1">
         <v>0</v>
@@ -8206,10 +8265,10 @@
     </row>
     <row r="176" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D176" s="1">
         <f>AVEDEV(B7:C7,C11,B16:B17)</f>
@@ -8250,7 +8309,7 @@
     </row>
     <row r="177" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C177" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D177" s="1">
         <v>1.3333288888888888</v>
@@ -8282,10 +8341,10 @@
     </row>
     <row r="180" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D180" s="1">
         <f>AVERAGE(B7:C15,B16:C17,D8:D16)</f>
@@ -8318,7 +8377,7 @@
     </row>
     <row r="181" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C181" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D181" s="1">
         <v>-4.0893554731909327E-9</v>
@@ -8344,114 +8403,114 @@
     </row>
     <row r="184" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="I184" s="25"/>
     </row>
     <row r="185" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C185" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="188" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="189" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C189" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="192" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C193" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C197" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C201" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C205" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="209" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C209" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="212" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D212" s="1">
         <f>CEILING(B10,B9)</f>
@@ -8496,7 +8555,7 @@
     </row>
     <row r="213" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C213" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D213" s="1">
         <v>534</v>
@@ -8531,23 +8590,23 @@
     </row>
     <row r="216" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B216" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="217" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C217" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="220" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B220" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D220" s="1" t="str">
         <f>CHAR(65)</f>
@@ -8564,13 +8623,13 @@
     </row>
     <row r="221" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C221" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F221" s="1" t="e">
         <v>#VALUE!</v>
@@ -8578,68 +8637,68 @@
     </row>
     <row r="224" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B224" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C225" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B228" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C229" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B232" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C233" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B236" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C237" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B240" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D240" s="1">
         <f>CHOOSE(1,2,3)</f>
@@ -8664,7 +8723,7 @@
     </row>
     <row r="241" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C241" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -8684,10 +8743,10 @@
     </row>
     <row r="244" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D244" s="1" t="str">
         <f>CLEAN(CHAR(7)&amp;"text"&amp;CHAR(7))</f>
@@ -8696,31 +8755,31 @@
     </row>
     <row r="245" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C245" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="248" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="249" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C249" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="252" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D252" s="1">
         <f>COLUMN(C7)</f>
@@ -8749,7 +8808,7 @@
     </row>
     <row r="253" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C253" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D253" s="1">
         <v>3</v>
@@ -8772,10 +8831,10 @@
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D256" s="1">
         <f>COLUMNS(C1:E4)</f>
@@ -8784,7 +8843,7 @@
     </row>
     <row r="257" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C257" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D257" s="1">
         <v>3</v>
@@ -8792,10 +8851,10 @@
     </row>
     <row r="260" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B260" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D260" s="1">
         <f>COMBIN(B9,B8)</f>
@@ -8836,7 +8895,7 @@
     </row>
     <row r="261" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C261" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="D261" s="1">
         <v>2</v>
@@ -8868,10 +8927,10 @@
     </row>
     <row r="264" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B264" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D264" s="1" t="str">
         <f>CONCATENATE(B7,B15)</f>
@@ -8908,25 +8967,25 @@
     </row>
     <row r="265" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C265" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D265" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G265" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E265" s="1" t="s">
+      <c r="H265" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F265" s="1" t="s">
+      <c r="I265" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="G265" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H265" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I265" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="J265" s="2" t="e">
         <v>#VALUE!</v>
@@ -8937,36 +8996,36 @@
     </row>
     <row r="268" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B268" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="269" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C269" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="272" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B272" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="273" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C273" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="276" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B276" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D276" s="1">
         <f>COS(D7)</f>
@@ -9019,7 +9078,7 @@
     </row>
     <row r="277" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C277" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D277" s="1">
         <v>1</v>
@@ -9060,10 +9119,10 @@
     </row>
     <row r="280" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B280" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D280" s="1">
         <f>COSH(B7)</f>
@@ -9112,7 +9171,7 @@
     </row>
     <row r="281" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C281" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D281" s="1">
         <v>1</v>
@@ -9150,10 +9209,10 @@
     </row>
     <row r="284" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B284" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D284" s="1">
         <f>COUNT(B8:E9)</f>
@@ -9170,7 +9229,7 @@
     </row>
     <row r="285" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C285" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D285" s="1">
         <v>4</v>
@@ -9184,10 +9243,10 @@
     </row>
     <row r="288" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B288" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D288" s="1">
         <f>COUNTA(C9:D11)</f>
@@ -9204,7 +9263,7 @@
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C289" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="D289" s="1">
         <v>3</v>
@@ -9218,10 +9277,10 @@
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B292" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D292" s="1">
         <f>COUNTBLANK(B8:E9)</f>
@@ -9234,7 +9293,7 @@
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C293" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D293" s="1">
         <v>2</v>
@@ -9245,10 +9304,10 @@
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B296" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D296" s="1">
         <f>COUNTIF(J7:K10, 4)</f>
@@ -9265,7 +9324,7 @@
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C297" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="D297" s="1">
         <v>2</v>
@@ -9279,87 +9338,87 @@
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B300" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C301" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B304" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="305" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C305" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="308" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="309" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C309" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="312" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B312" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="313" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C313" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="316" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B316" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="317" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C317" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="320" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B320" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D320" s="39">
         <f>DATE(1900, 1, 1)</f>
@@ -9401,7 +9460,7 @@
     </row>
     <row r="321" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C321" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D321" s="39">
         <v>1</v>
@@ -9434,62 +9493,62 @@
     </row>
     <row r="324" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B324" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="325" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C325" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="328" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B328" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="329" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C329" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="332" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B332" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="333" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C333" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="336" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B336" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C337" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B340" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D340" s="1">
         <f>DAY(C20)</f>
@@ -9514,7 +9573,7 @@
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C341" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D341" s="1">
         <v>25</v>
@@ -9534,10 +9593,10 @@
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B344" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D344" s="1">
         <f>DAYS360(B10,C10)</f>
@@ -9555,7 +9614,7 @@
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C345" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D345" s="1">
         <v>-526</v>
@@ -9569,87 +9628,87 @@
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B348" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C349" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B352" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="353" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C353" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="356" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B356" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="357" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C357" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="360" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B360" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="361" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C361" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="364" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B364" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="365" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C365" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="368" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B368" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D368" s="1">
         <f>DEGREES(B7)</f>
@@ -9702,7 +9761,7 @@
     </row>
     <row r="369" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C369" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D369" s="1">
         <v>0</v>
@@ -9743,99 +9802,99 @@
     </row>
     <row r="372" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B372" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="373" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C373" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="376" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B376" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="377" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C377" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="380" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B380" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="381" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C381" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="384" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B384" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="385" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C385" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="388" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B388" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="389" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C389" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="392" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B392" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D392" s="1">
         <f>DEVSQ(B7:B9)</f>
@@ -9868,7 +9927,7 @@
     </row>
     <row r="393" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C393" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D393" s="1">
         <v>2</v>
@@ -9894,182 +9953,182 @@
     </row>
     <row r="396" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B396" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="397" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C397" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="400" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B400" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C401" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B404" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C405" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B408" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C409" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B412" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C413" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B416" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="417" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C417" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="420" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B420" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D420" s="1" t="str">
-        <f>DOLLAR(B7)</f>
+        <f>USDOLLAR(B7)</f>
         <v>$0.00</v>
       </c>
       <c r="E420" s="1" t="str">
-        <f>DOLLAR(B8)</f>
+        <f>USDOLLAR(B8)</f>
         <v>$1.00</v>
       </c>
       <c r="F420" s="1" t="str">
-        <f>DOLLAR(B16)</f>
+        <f>USDOLLAR(B16)</f>
         <v>$1.00</v>
       </c>
       <c r="G420" s="2" t="str">
-        <f>DOLLAR(D7)</f>
+        <f>USDOLLAR(D7)</f>
         <v>$0.00</v>
       </c>
       <c r="H420" s="2" t="str">
-        <f>DOLLAR(C15)</f>
+        <f>USDOLLAR(C15)</f>
         <v>($1.00)</v>
       </c>
       <c r="I420" s="2" t="e">
-        <f>DOLLAR(E7)</f>
+        <f>USDOLLAR(E7)</f>
         <v>#VALUE!</v>
       </c>
       <c r="J420" s="2" t="str">
-        <f>DOLLAR(E15)</f>
+        <f>USDOLLAR(E15)</f>
         <v>$1.00</v>
       </c>
       <c r="K420" s="2" t="str">
-        <f>DOLLAR(I9:L9)</f>
+        <f>USDOLLAR(I9:L9)</f>
         <v>$3.00</v>
       </c>
       <c r="L420" s="2" t="str">
-        <f>DOLLAR(J418:J421)</f>
+        <f>USDOLLAR(J418:J421)</f>
         <v>$1.00</v>
       </c>
       <c r="M420" s="2" t="e">
-        <f>DOLLAR(K9:L10)</f>
+        <f>USDOLLAR(K9:L10)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N420" s="2" t="e">
-        <f>DOLLAR(G10)</f>
+        <f>USDOLLAR(G10)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="421" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C421" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D421" s="1">
-        <v>0</v>
-      </c>
-      <c r="E421" s="1">
-        <v>1</v>
-      </c>
-      <c r="F421" s="1">
-        <v>1</v>
-      </c>
-      <c r="G421" s="2">
-        <v>0</v>
-      </c>
-      <c r="H421" s="2">
-        <v>-1.0000100000000001</v>
+        <v>846</v>
+      </c>
+      <c r="D421" s="54" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E421" s="54" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F421" s="54" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G421" s="54" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H421" s="54" t="s">
+        <v>1221</v>
       </c>
       <c r="I421" s="2" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J421" s="2">
-        <v>1</v>
-      </c>
-      <c r="K421" s="2">
-        <v>3</v>
-      </c>
-      <c r="L421" s="2">
-        <v>1</v>
+      <c r="J421" s="54" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K421" s="54" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L421" s="54" t="s">
+        <v>1220</v>
       </c>
       <c r="M421" s="2" t="e">
         <v>#VALUE!</v>
@@ -10080,139 +10139,139 @@
     </row>
     <row r="424" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B424" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="425" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C425" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="428" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B428" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="429" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C429" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="432" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B432" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C433" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B436" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C437" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B440" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C441" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B444" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C445" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B448" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="449" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C449" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="452" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B452" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="453" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C453" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="456" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B456" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="457" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C457" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="460" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B460" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D460" s="1">
         <f>ERROR.TYPE(AA7)</f>
@@ -10249,7 +10308,7 @@
     </row>
     <row r="461" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C461" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D461" s="1">
         <v>1</v>
@@ -10278,36 +10337,36 @@
     </row>
     <row r="464" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B464" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="465" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C465" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="468" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B468" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="469" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C469" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="472" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B472" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D472" s="1">
         <f>EVEN(B7)</f>
@@ -10356,7 +10415,7 @@
     </row>
     <row r="473" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C473" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D473" s="1">
         <v>0</v>
@@ -10394,10 +10453,10 @@
     </row>
     <row r="476" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B476" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D476" s="1" t="b">
         <f>EXACT(123,"123")</f>
@@ -10438,7 +10497,7 @@
     </row>
     <row r="477" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C477" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D477" s="1" t="b">
         <v>1</v>
@@ -10470,48 +10529,48 @@
     </row>
     <row r="480" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B480" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="481" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C481" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="484" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B484" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="485" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C485" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="488" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B488" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D488" s="1">
         <f>EXP(B8)</f>
@@ -10552,7 +10611,7 @@
     </row>
     <row r="489" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C489" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D489" s="1">
         <v>2.7182818284590451</v>
@@ -10584,23 +10643,23 @@
     </row>
     <row r="492" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B492" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="493" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C493" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="496" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B496" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>64</v>
@@ -10608,7 +10667,7 @@
     </row>
     <row r="497" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C497" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>64</v>
@@ -10616,10 +10675,10 @@
     </row>
     <row r="500" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B500" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D500" s="1">
         <f>FACT(1)</f>
@@ -10688,7 +10747,7 @@
     </row>
     <row r="501" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C501" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D501" s="1">
         <v>1</v>
@@ -10741,10 +10800,10 @@
     </row>
     <row r="504" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B504" s="26" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D504" s="1" t="b">
         <f>FALSE()</f>
@@ -10753,7 +10812,7 @@
     </row>
     <row r="505" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C505" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D505" s="1" t="b">
         <v>0</v>
@@ -10761,61 +10820,61 @@
     </row>
     <row r="508" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B508" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="509" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C509" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="512" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B512" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="513" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C513" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="516" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B516" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="517" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C517" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="520" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B520" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D520" s="1">
         <f>FIND("o",E8)</f>
@@ -10840,7 +10899,7 @@
     </row>
     <row r="521" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C521" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D521" s="1">
         <v>2</v>
@@ -10860,75 +10919,75 @@
     </row>
     <row r="524" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B524" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="525" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C525" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="528" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B528" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="529" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C529" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="532" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B532" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="533" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C533" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="536" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B536" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="537" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C537" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="540" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B540" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="541" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C541" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="544" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B544" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D544" s="1">
         <f>FLOOR(1.002,2)</f>
@@ -10973,7 +11032,7 @@
     </row>
     <row r="545" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C545" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D545" s="1">
         <v>0</v>
@@ -11008,151 +11067,151 @@
     </row>
     <row r="548" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B548" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="549" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C549" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="552" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B552" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="553" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C553" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="556" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B556" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="557" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C557" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="560" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B560" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="561" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C561" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="564" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B564" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="565" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C565" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="568" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B568" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="569" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C569" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="572" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B572" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="573" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C573" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B576" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="577" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C577" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="580" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B580" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="581" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C581" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="584" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B584" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D584" s="41">
         <f>FV(0,0,0)</f>
@@ -11169,7 +11228,7 @@
     </row>
     <row r="585" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C585" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D585" s="1">
         <v>0</v>
@@ -11183,522 +11242,522 @@
     </row>
     <row r="588" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B588" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="589" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C589" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="592" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B592" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="593" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C593" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="596" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B596" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="597" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C597" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B600" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C601" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B604" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C605" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="608" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B608" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C609" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B612" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="613" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C613" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B616" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C617" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B620" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C621" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B624" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C625" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="628" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B628" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="629" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C629" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="632" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B632" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="633" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C633" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="636" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B636" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="637" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C637" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="640" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B640" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="641" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C641" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="644" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B644" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C645" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="648" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B648" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="649" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C649" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B652" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C653" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="656" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B656" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="657" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C657" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="660" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B660" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="661" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C661" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="664" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B664" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="665" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C665" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="668" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B668" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="669" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C669" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B672" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="673" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C673" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="676" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B676" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="677" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C677" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="680" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B680" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="681" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C681" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="684" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B684" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="685" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C685" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="688" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B688" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="689" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C689" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="692" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B692" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="693" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C693" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="696" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B696" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="697" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C697" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="700" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B700" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="701" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C701" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="704" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B704" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="705" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C705" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="708" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B708" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="709" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C709" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="712" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B712" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="713" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C713" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="716" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B716" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D716" s="1">
         <f>HLOOKUP("DOUBLE",$B$6:$H$12,3, FALSE)</f>
@@ -11719,7 +11778,7 @@
     </row>
     <row r="717" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C717" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D717" s="1">
         <v>1.0000000000000001E-5</v>
@@ -11728,18 +11787,18 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F717" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="G717" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="720" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B720" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C720" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D720" s="1">
         <f>HOUR(1)</f>
@@ -11764,7 +11823,7 @@
     </row>
     <row r="721" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C721" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D721" s="1">
         <v>0</v>
@@ -11784,10 +11843,10 @@
     </row>
     <row r="724" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B724" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D724" s="12" t="str">
         <f>HYPERLINK("http://poi.apache.org")</f>
@@ -11796,23 +11855,23 @@
     </row>
     <row r="725" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C725" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D725" s="12" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="728" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B728" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="729" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C729" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="732" spans="2:13" x14ac:dyDescent="0.2">
@@ -11820,7 +11879,7 @@
         <v>88</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D732" s="1" t="b">
         <f>IF(1&gt;2,3)</f>
@@ -11865,7 +11924,7 @@
     </row>
     <row r="733" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C733" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D733" s="1" t="b">
         <v>0</v>
@@ -11895,15 +11954,15 @@
         <v>#NAME?</v>
       </c>
       <c r="M733" s="2" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="736" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B736" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C736" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D736" s="1">
         <f>INDEX(B14:C15,2,2)</f>
@@ -11916,7 +11975,7 @@
     </row>
     <row r="737" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C737" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D737" s="1">
         <v>-1.0000100000000001</v>
@@ -11927,10 +11986,10 @@
     </row>
     <row r="740" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B740" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C740" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D740" s="1">
         <f ca="1">INDIRECT("B9")</f>
@@ -11947,7 +12006,7 @@
     </row>
     <row r="741" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C741" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D741" s="1">
         <v>2</v>
@@ -11961,49 +12020,49 @@
     </row>
     <row r="744" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B744" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C744" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="745" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C745" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="748" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B748" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C748" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="749" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C749" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="752" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B752" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C752" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="753" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C753" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="756" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B756" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C756" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D756" s="1">
         <f>INT(B7)</f>
@@ -12056,7 +12115,7 @@
     </row>
     <row r="757" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C757" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D757" s="1">
         <v>0</v>
@@ -12097,36 +12156,36 @@
     </row>
     <row r="760" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B760" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C760" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="761" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C761" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="764" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B764" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C764" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="765" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C765" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="768" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B768" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C768" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D768" s="53">
         <f>TRUNC(IRR(AL7:AL11),4)</f>
@@ -12143,7 +12202,7 @@
     </row>
     <row r="769" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C769" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D769" s="53">
         <v>-7.6799999999999993E-2</v>
@@ -12157,10 +12216,10 @@
     </row>
     <row r="772" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B772" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C772" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D772" s="1" t="b">
         <f>ISBLANK(B7)</f>
@@ -12201,7 +12260,7 @@
     </row>
     <row r="773" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C773" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D773" s="1" t="b">
         <v>0</v>
@@ -12233,23 +12292,23 @@
     </row>
     <row r="776" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B776" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C776" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="777" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C777" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="780" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B780" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C780" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D780" s="1" t="b">
         <f>ISERROR(B7)</f>
@@ -12290,7 +12349,7 @@
     </row>
     <row r="781" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C781" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D781" s="1" t="b">
         <v>0</v>
@@ -12322,10 +12381,10 @@
     </row>
     <row r="784" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B784" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C784" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D784" s="1" t="b">
         <f>ISLOGICAL(B7)</f>
@@ -12366,7 +12425,7 @@
     </row>
     <row r="785" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C785" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D785" s="1" t="b">
         <v>0</v>
@@ -12398,10 +12457,10 @@
     </row>
     <row r="788" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B788" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C788" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D788" s="1" t="b">
         <f>ISNA(#N/A)</f>
@@ -12430,7 +12489,7 @@
     </row>
     <row r="789" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C789" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D789" s="1" t="b">
         <v>1</v>
@@ -12453,10 +12512,10 @@
     </row>
     <row r="792" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B792" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C792" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D792" s="1" t="b">
         <f>ISNONTEXT(1)</f>
@@ -12497,7 +12556,7 @@
     </row>
     <row r="793" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C793" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D793" s="1" t="b">
         <v>1</v>
@@ -12529,10 +12588,10 @@
     </row>
     <row r="796" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B796" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C796" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D796" s="1" t="b">
         <f>ISNUMBER(0)</f>
@@ -12593,7 +12652,7 @@
     </row>
     <row r="797" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C797" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D797" s="1" t="b">
         <v>1</v>
@@ -12640,23 +12699,23 @@
     </row>
     <row r="800" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B800" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C800" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="801" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C801" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="804" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B804" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C804" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D804" s="1" t="b">
         <f>ISREF(0)</f>
@@ -12693,7 +12752,7 @@
     </row>
     <row r="805" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C805" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D805" s="1" t="b">
         <v>0</v>
@@ -12722,10 +12781,10 @@
     </row>
     <row r="808" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B808" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C808" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D808" s="1" t="b">
         <f>ISTEXT(1)</f>
@@ -12766,7 +12825,7 @@
     </row>
     <row r="809" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C809" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D809" s="1" t="b">
         <v>0</v>
@@ -12798,23 +12857,23 @@
     </row>
     <row r="812" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B812" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="813" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C813" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="816" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B816" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C816" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D816" s="1">
         <f>LARGE(B7:C14,1)</f>
@@ -12859,7 +12918,7 @@
     </row>
     <row r="817" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C817" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D817" s="1">
         <v>9999999999</v>
@@ -12894,23 +12953,23 @@
     </row>
     <row r="820" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B820" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C820" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="821" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C821" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="824" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B824" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C824" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D824" s="1" t="str">
         <f>LEFT("a string",0)</f>
@@ -12947,10 +13006,10 @@
     </row>
     <row r="825" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C825" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D825" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E825" s="1" t="s">
         <v>92</v>
@@ -12976,23 +13035,23 @@
     </row>
     <row r="828" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B828" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C828" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="829" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C829" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="832" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B832" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C832" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D832" s="1">
         <f>LEN(B10)</f>
@@ -13033,7 +13092,7 @@
     </row>
     <row r="833" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C833" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D833" s="1">
         <v>3</v>
@@ -13065,49 +13124,49 @@
     </row>
     <row r="836" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B836" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C836" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="837" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C837" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="840" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B840" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C840" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="841" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C841" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="844" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B844" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="845" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C845" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="848" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B848" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C848" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D848" s="1" t="e">
         <f>LN(B7)</f>
@@ -13164,7 +13223,7 @@
     </row>
     <row r="849" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C849" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D849" s="1" t="e">
         <v>#NUM!</v>
@@ -13208,10 +13267,10 @@
     </row>
     <row r="852" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B852" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C852" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D852" s="1" t="e">
         <f>LOG(B7)</f>
@@ -13256,7 +13315,7 @@
     </row>
     <row r="853" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C853" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D853" s="1" t="e">
         <v>#NUM!</v>
@@ -13291,10 +13350,10 @@
     </row>
     <row r="856" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B856" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C856" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D856" s="1" t="e">
         <f>LOG10(B7)</f>
@@ -13347,7 +13406,7 @@
     </row>
     <row r="857" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C857" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D857" s="1" t="e">
         <v>#NUM!</v>
@@ -13388,49 +13447,49 @@
     </row>
     <row r="860" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B860" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C860" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="861" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C861" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="864" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B864" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C864" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="865" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C865" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="868" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B868" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C868" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="869" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C869" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="872" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B872" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C872" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D872" s="1" t="str">
         <f>LOOKUP(534,B6:B15,E6:E15)</f>
@@ -13443,10 +13502,10 @@
     </row>
     <row r="873" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C873" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D873" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E873" s="1">
         <v>1.1000000000000001</v>
@@ -13454,10 +13513,10 @@
     </row>
     <row r="876" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B876" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C876" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D876" s="1" t="str">
         <f>LOWER("ALL UPPER")</f>
@@ -13514,7 +13573,7 @@
     </row>
     <row r="877" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C877" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D877" s="1" t="s">
         <v>65</v>
@@ -13523,7 +13582,7 @@
         <v>66</v>
       </c>
       <c r="F877" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G877" s="2" t="s">
         <v>67</v>
@@ -13544,10 +13603,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="M877" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="N877" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="O877" s="2" t="e">
         <v>#VALUE!</v>
@@ -13558,10 +13617,10 @@
     </row>
     <row r="880" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B880" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D880" s="1">
         <f>MATCH(5,B7:B10)</f>
@@ -13578,7 +13637,7 @@
     </row>
     <row r="881" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C881" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D881" s="1">
         <v>3</v>
@@ -13592,10 +13651,10 @@
     </row>
     <row r="884" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B884" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C884" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D884" s="1">
         <f>MAX(B7:B19)</f>
@@ -13632,7 +13691,7 @@
     </row>
     <row r="885" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C885" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D885" s="1">
         <v>9999999999</v>
@@ -13661,10 +13720,10 @@
     </row>
     <row r="888" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B888" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C888" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D888" s="1">
         <f>MAXA(B7:B10)</f>
@@ -13697,7 +13756,7 @@
     </row>
     <row r="889" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C889" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D889" s="1">
         <v>534</v>
@@ -13723,23 +13782,23 @@
     </row>
     <row r="892" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B892" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C892" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="893" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C893" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="896" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B896" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C896" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D896" s="1">
         <f>MEDIAN(B7:B9,B10:B12,B13:B15,B16:B18)</f>
@@ -13780,7 +13839,7 @@
     </row>
     <row r="897" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C897" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D897" s="1">
         <v>0</v>
@@ -13812,10 +13871,10 @@
     </row>
     <row r="900" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B900" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C900" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D900" s="1" t="str">
         <f>MID(E8,1,3)</f>
@@ -13836,40 +13895,40 @@
     </row>
     <row r="901" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C901" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="E901" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="F901" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G901" s="36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="904" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B904" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C904" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="905" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C905" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="908" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B908" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D908" s="1">
         <f>MIN(B7:B12)</f>
@@ -13914,7 +13973,7 @@
     </row>
     <row r="909" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C909" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D909" s="1">
         <v>-9999999999</v>
@@ -13949,10 +14008,10 @@
     </row>
     <row r="912" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B912" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C912" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D912" s="1">
         <f>MINA(B8:D12)</f>
@@ -13985,7 +14044,7 @@
     </row>
     <row r="913" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C913" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D913" s="1">
         <v>-9999999999</v>
@@ -14011,10 +14070,10 @@
     </row>
     <row r="916" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B916" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C916" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D916" s="1">
         <f>MINUTE(1)</f>
@@ -14031,7 +14090,7 @@
     </row>
     <row r="917" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C917" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D917" s="1">
         <v>0</v>
@@ -14045,49 +14104,49 @@
     </row>
     <row r="920" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B920" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="921" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C921" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="924" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B924" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="925" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C925" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="928" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B928" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="929" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C929" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="932" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B932" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D932" s="1">
         <f>MOD(C11,C15)</f>
@@ -14136,7 +14195,7 @@
     </row>
     <row r="933" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C933" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D933" s="1">
         <v>-4.0000000000262048E-5</v>
@@ -14174,10 +14233,10 @@
     </row>
     <row r="936" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B936" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D936" s="1" t="e">
         <f>MODE(B7:B15)</f>
@@ -14222,7 +14281,7 @@
     </row>
     <row r="937" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C937" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D937" s="1" t="e">
         <v>#N/A</v>
@@ -14257,10 +14316,10 @@
     </row>
     <row r="940" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B940" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D940" s="1">
         <f>MONTH(C20)</f>
@@ -14289,7 +14348,7 @@
     </row>
     <row r="941" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C941" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D941" s="1">
         <v>12</v>
@@ -14312,42 +14371,42 @@
     </row>
     <row r="944" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B944" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="945" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C945" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="948" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B948" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="949" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C949" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="952" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B952" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D952" s="1" t="e">
         <f>NA()</f>
@@ -14356,7 +14415,7 @@
     </row>
     <row r="953" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C953" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D953" s="1" t="e">
         <v>#N/A</v>
@@ -14364,88 +14423,88 @@
     </row>
     <row r="956" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B956" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="957" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C957" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="960" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B960" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="961" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C961" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="964" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B964" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="965" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C965" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="968" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B968" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="969" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C969" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="972" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B972" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="973" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C973" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="976" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B976" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C976" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="977" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C977" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="980" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B980" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D980" s="1" t="b">
         <f>NOT(0)</f>
@@ -14470,7 +14529,7 @@
     </row>
     <row r="981" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C981" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D981" s="1" t="b">
         <v>1</v>
@@ -14490,36 +14549,36 @@
     </row>
     <row r="984" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B984" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="985" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C985" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="988" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B988" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="989" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C989" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="992" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B992" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C992" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D992" s="2">
         <f>NPER(0.01,1,10)</f>
@@ -14548,7 +14607,7 @@
     </row>
     <row r="993" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C993" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D993" s="2">
         <v>-9.5785940398131615</v>
@@ -14571,10 +14630,10 @@
     </row>
     <row r="996" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B996" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D996" s="41">
         <f>TRUNC(NPV(5%,AL9:AL12),4)</f>
@@ -14587,7 +14646,7 @@
     </row>
     <row r="997" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C997" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D997" s="1">
         <v>62368.56</v>
@@ -14598,23 +14657,23 @@
     </row>
     <row r="1000" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1000" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C1000" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="1001" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1001" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1004" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1004" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D1004" s="1">
         <f>ODD(B7)</f>
@@ -14663,7 +14722,7 @@
     </row>
     <row r="1005" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1005" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D1005" s="1">
         <v>1</v>
@@ -14701,10 +14760,10 @@
     </row>
     <row r="1008" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1008" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C1008" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D1008" s="1">
         <f ca="1">OFFSET(G7, 2, 0)</f>
@@ -14753,7 +14812,7 @@
     </row>
     <row r="1009" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1009" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D1009" s="1">
         <v>2.3456000000000001</v>
@@ -14791,48 +14850,48 @@
     </row>
     <row r="1012" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1012" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C1012" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D1012" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1013" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1013" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D1013" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1016" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1016" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C1016" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D1016" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1017" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1017" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D1017" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1020" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1020" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C1020" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D1020" s="1" t="b">
         <f>OR(B7)</f>
@@ -14869,7 +14928,7 @@
     </row>
     <row r="1021" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1021" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D1021" s="1" t="b">
         <v>0</v>
@@ -14898,100 +14957,100 @@
     </row>
     <row r="1024" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1024" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C1024" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D1024" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1025" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1025" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D1025" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1028" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1028" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C1028" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1029" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1029" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1032" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1032" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C1032" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1033" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1033" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1036" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1036" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C1036" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1037" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1037" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1040" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1040" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C1040" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="1041" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1041" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1044" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1044" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C1044" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D1044" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1045" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1045" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D1045" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1048" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1048" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C1048" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D1048" s="1">
         <f>PI()</f>
@@ -15000,7 +15059,7 @@
     </row>
     <row r="1049" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1049" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D1049" s="1">
         <v>3.14159265358979</v>
@@ -15008,29 +15067,29 @@
     </row>
     <row r="1052" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1052" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C1052" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D1052" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1053" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C1053" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D1053" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1056" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1056" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C1056" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D1056" s="42">
         <f>PMT(0.01, 10, B16)</f>
@@ -15047,7 +15106,7 @@
     </row>
     <row r="1057" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1057" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D1057" s="2">
         <v>-0.10558207655117115</v>
@@ -15061,10 +15120,10 @@
     </row>
     <row r="1060" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1060" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C1060" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D1060" s="1">
         <f>POISSON(2, 5, TRUE)</f>
@@ -15077,7 +15136,7 @@
     </row>
     <row r="1061" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1061" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D1061" s="1">
         <v>0.124652019</v>
@@ -15088,29 +15147,29 @@
     </row>
     <row r="1064" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1064" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C1064" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D1064" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1065" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1065" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D1065" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1068" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1068" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C1068" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D1068" s="1">
         <f>POWER(B8,B9)</f>
@@ -15159,7 +15218,7 @@
     </row>
     <row r="1069" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1069" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D1069" s="1">
         <v>1</v>
@@ -15197,55 +15256,55 @@
     </row>
     <row r="1072" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1072" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C1072" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1073" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1073" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1076" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1076" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C1076" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D1076" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1077" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1077" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D1077" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1080" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1080" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C1080" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="1081" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1081" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="1084" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1084" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C1084" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D1084" s="1">
         <f>PRODUCT("2",B9:B10)</f>
@@ -15286,7 +15345,7 @@
     </row>
     <row r="1085" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1085" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D1085" s="1">
         <v>2136</v>
@@ -15318,23 +15377,23 @@
     </row>
     <row r="1088" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1088" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C1088" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="1089" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1089" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="1092" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1092" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C1092" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D1092" s="42">
         <f>PV(0.1, 10, B16)</f>
@@ -15343,7 +15402,7 @@
     </row>
     <row r="1093" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1093" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D1093" s="2">
         <v>-6.1445671057046853</v>
@@ -15351,23 +15410,23 @@
     </row>
     <row r="1096" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1096" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C1096" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1097" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1097" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1100" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C1100" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D1100" s="1">
         <f>RADIANS(B7)</f>
@@ -15416,7 +15475,7 @@
     </row>
     <row r="1101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1101" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D1101" s="1">
         <v>0</v>
@@ -15454,42 +15513,42 @@
     </row>
     <row r="1104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1104" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C1104" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1105" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D1105" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1108" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1108" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="1109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1109" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="1112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1112" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C1112" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1112" s="49">
         <f>RATE(58,-200,8000)</f>
@@ -15498,7 +15557,7 @@
     </row>
     <row r="1113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1113" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D1113" s="1">
         <v>1.35412576432592E-2</v>
@@ -15506,105 +15565,105 @@
     </row>
     <row r="1116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1116" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C1116" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D1116" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1117" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1117" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1120" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C1120" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1121" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1124" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C1124" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D1124" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1125" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D1125" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1128" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C1128" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D1128" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1129" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1129" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D1129" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1132" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C1132" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D1132" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1133" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D1133" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1136" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C1136" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D1136" s="1" t="str">
         <f>REPLACE("ABCDEFG", 2.3, 3.9, "xx")</f>
@@ -15633,19 +15692,19 @@
     </row>
     <row r="1137" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1137" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D1137" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1137" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F1137" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G1137" s="36" t="s">
         <v>1201</v>
-      </c>
-      <c r="E1137" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F1137" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G1137" s="36" t="s">
-        <v>1204</v>
       </c>
       <c r="H1137" s="2" t="e">
         <v>#VALUE!</v>
@@ -15656,119 +15715,119 @@
     </row>
     <row r="1140" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1140" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C1140" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1141" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1144" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C1144" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="1145" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1145" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="1148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1148" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C1148" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="1149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1149" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="1152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1152" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C1152" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D1152" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1153" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C1153" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1156" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1156" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1156" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D1156" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1157" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C1157" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D1157" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1160" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1160" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C1160" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C1161" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1164" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C1164" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D1164" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C1165" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1168" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1168" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C1168" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D1168" s="1" t="str">
         <f>RIGHT("a string",0)</f>
@@ -15805,10 +15864,10 @@
     </row>
     <row r="1169" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1169" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E1169" s="1" t="s">
         <v>86</v>
@@ -15834,36 +15893,36 @@
     </row>
     <row r="1172" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1172" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C1172" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1173" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1173" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="1176" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1176" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C1176" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1177" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1177" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="1180" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1180" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C1180" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D1180" s="1">
         <f>ROUND(B9,B8)</f>
@@ -15920,7 +15979,7 @@
     </row>
     <row r="1181" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1181" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D1181" s="1">
         <v>2</v>
@@ -15964,10 +16023,10 @@
     </row>
     <row r="1184" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1184" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C1184" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D1184" s="1">
         <f>ROUNDDOWN(1.5,0)</f>
@@ -16024,7 +16083,7 @@
     </row>
     <row r="1185" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1185" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D1185" s="1">
         <v>1</v>
@@ -16068,10 +16127,10 @@
     </row>
     <row r="1188" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1188" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C1188" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D1188" s="1">
         <f>ROUNDUP(0,0)</f>
@@ -16124,7 +16183,7 @@
     </row>
     <row r="1189" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1189" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D1189" s="1">
         <v>0</v>
@@ -16165,10 +16224,10 @@
     </row>
     <row r="1192" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1192" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C1192" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D1192" s="1">
         <f>ROW(E17)</f>
@@ -16205,7 +16264,7 @@
     </row>
     <row r="1193" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1193" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D1193" s="1">
         <v>17</v>
@@ -16234,10 +16293,10 @@
     </row>
     <row r="1196" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1196" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C1196" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D1196" s="1">
         <f>ROWS(B6:D10)</f>
@@ -16246,7 +16305,7 @@
     </row>
     <row r="1197" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1197" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D1197" s="1">
         <v>5</v>
@@ -16254,80 +16313,80 @@
     </row>
     <row r="1200" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1200" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C1200" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="1201" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1201" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="1204" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1204" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C1204" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D1204" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1205" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1205" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D1205" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1208" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1208" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C1208" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D1208" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1209" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1209" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D1209" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1212" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1212" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D1212" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1213" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1213" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D1213" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1216" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1216" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D1216" s="1">
         <f>SEARCH("n","printer")</f>
@@ -16352,7 +16411,7 @@
     </row>
     <row r="1217" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1217" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D1217" s="1">
         <v>4</v>
@@ -16372,23 +16431,23 @@
     </row>
     <row r="1220" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1220" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C1220" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1221" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1221" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1224" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1224" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C1224" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D1224" s="1">
         <f>SECOND(0.5)</f>
@@ -16405,7 +16464,7 @@
     </row>
     <row r="1225" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1225" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D1225" s="1">
         <v>0</v>
@@ -16419,93 +16478,93 @@
     </row>
     <row r="1228" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1228" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C1228" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1229" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C1229" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1232" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1232" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C1232" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="1233" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C1233" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1236" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1236" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C1236" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D1236" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1237" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C1237" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D1237" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1240" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1240" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C1240" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D1240" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1241" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C1241" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D1241" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1244" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1244" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C1244" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D1244" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1245" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C1245" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D1245" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1248" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1248" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C1248" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D1248" s="1">
         <f>SIGN(B7)</f>
@@ -16558,7 +16617,7 @@
     </row>
     <row r="1249" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1249" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D1249" s="1">
         <v>0</v>
@@ -16599,10 +16658,10 @@
     </row>
     <row r="1252" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1252" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C1252" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D1252" s="1">
         <f>SIN(B7)</f>
@@ -16659,7 +16718,7 @@
     </row>
     <row r="1253" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1253" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D1253" s="1">
         <v>0</v>
@@ -16703,10 +16762,10 @@
     </row>
     <row r="1256" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1256" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C1256" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D1256" s="1">
         <f>SINH(B7)</f>
@@ -16759,7 +16818,7 @@
     </row>
     <row r="1257" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1257" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D1257" s="1">
         <v>0</v>
@@ -16800,41 +16859,41 @@
     </row>
     <row r="1260" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1260" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C1260" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1261" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1261" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1264" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1264" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C1264" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="1265" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1265" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="1268" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B1268" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C1268" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="1269" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C1269" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1272" spans="2:16" x14ac:dyDescent="0.2">
@@ -16914,7 +16973,7 @@
         <v>42</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1277" spans="2:16" x14ac:dyDescent="0.2">
@@ -16922,7 +16981,7 @@
         <v>43</v>
       </c>
       <c r="D1277" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1280" spans="2:16" x14ac:dyDescent="0.2">
@@ -17167,29 +17226,29 @@
     </row>
     <row r="1305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C1305" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1308" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C1309" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1312" spans="1:25" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1312" s="22"/>
       <c r="B1312" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C1312" s="22" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D1312" s="22" t="str">
         <f>SUBSTITUTE(E12,"n","N")</f>
@@ -17280,7 +17339,7 @@
       <c r="A1313" s="22"/>
       <c r="B1313" s="22"/>
       <c r="C1313" s="22" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D1313" s="22" t="s">
         <v>25</v>
@@ -17313,7 +17372,7 @@
         <v>33</v>
       </c>
       <c r="O1313" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P1313" s="23" t="s">
         <v>34</v>
@@ -17325,13 +17384,13 @@
         <v>36</v>
       </c>
       <c r="S1313" s="23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="T1313" s="27" t="s">
         <v>37</v>
       </c>
       <c r="U1313" s="23" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="V1313" s="23" t="e">
         <v>#VALUE!</v>
@@ -17340,18 +17399,18 @@
         <v>#VALUE!</v>
       </c>
       <c r="X1313" s="23" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="Y1313" s="23" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1316" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C1316" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D1316" s="1">
         <f>SUBTOTAL(9,B7:B9)</f>
@@ -17376,7 +17435,7 @@
     </row>
     <row r="1317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C1317" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D1317" s="1">
         <v>3</v>
@@ -17396,10 +17455,10 @@
     </row>
     <row r="1320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1320" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C1320" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D1320" s="1">
         <f>SUM(B8:B11,C10,E17,E14,D16,B16,B18)</f>
@@ -17432,7 +17491,7 @@
     </row>
     <row r="1321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C1321" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D1321" s="1">
         <v>10000000537.00001</v>
@@ -17458,10 +17517,10 @@
     </row>
     <row r="1324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1324" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C1324" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D1324" s="1">
         <f>SUMIF(G7:J9, "&lt;3")</f>
@@ -17474,7 +17533,7 @@
     </row>
     <row r="1325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C1325" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D1325" s="1">
         <v>9.3455999999999992</v>
@@ -17485,10 +17544,10 @@
     </row>
     <row r="1328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1328" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C1328" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D1328" s="1">
         <f>SUMPRODUCT(B8:B9)</f>
@@ -17529,7 +17588,7 @@
     </row>
     <row r="1329" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1329" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D1329" s="1">
         <v>3</v>
@@ -17562,7 +17621,7 @@
     <row r="1330" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F1330" s="32"/>
       <c r="G1330" s="32" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="I1330" s="2">
         <v>2</v>
@@ -17580,10 +17639,10 @@
     </row>
     <row r="1332" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1332" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C1332" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D1332" s="1">
         <f>SUMSQ(B8:B10)</f>
@@ -17632,7 +17691,7 @@
     </row>
     <row r="1333" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1333" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D1333" s="1">
         <v>285161</v>
@@ -17670,10 +17729,10 @@
     </row>
     <row r="1336" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1336" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C1336" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D1336" s="1">
         <f>SUMX2MY2(B7:C10,C8:D11)</f>
@@ -17718,7 +17777,7 @@
     </row>
     <row r="1337" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C1337" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D1337" s="1">
         <v>285149.7900399997</v>
@@ -17753,10 +17812,10 @@
     </row>
     <row r="1340" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B1340" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C1340" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D1340" s="1">
         <f>SUMX2PY2(B7:B10,C8:C11)</f>
@@ -17956,40 +18015,40 @@
         <v>115</v>
       </c>
       <c r="D1353" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E1353" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F1353" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G1353" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H1353" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I1353" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J1353" s="2" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="K1353" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L1353" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M1353" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N1353" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O1353" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1356" spans="2:15" x14ac:dyDescent="0.2">
@@ -18186,7 +18245,7 @@
         <v>126</v>
       </c>
       <c r="D1368" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1369" spans="2:14" x14ac:dyDescent="0.2">
@@ -18194,7 +18253,7 @@
         <v>127</v>
       </c>
       <c r="D1369" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1372" spans="2:14" x14ac:dyDescent="0.2">
@@ -18222,13 +18281,13 @@
         <v>130</v>
       </c>
       <c r="D1373" s="41" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="E1373" s="44" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="F1373" s="41" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1376" spans="2:14" x14ac:dyDescent="0.2">
@@ -18239,7 +18298,7 @@
         <v>132</v>
       </c>
       <c r="D1376" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1377" spans="2:9" x14ac:dyDescent="0.2">
@@ -18247,7 +18306,7 @@
         <v>0</v>
       </c>
       <c r="D1377" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1380" spans="2:9" x14ac:dyDescent="0.2">
@@ -18258,7 +18317,7 @@
         <v>134</v>
       </c>
       <c r="D1380" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1381" spans="2:9" x14ac:dyDescent="0.2">
@@ -18266,7 +18325,7 @@
         <v>135</v>
       </c>
       <c r="D1381" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1384" spans="2:9" x14ac:dyDescent="0.2">
@@ -18375,7 +18434,7 @@
         <v>154</v>
       </c>
       <c r="C1408" s="19" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D1408" s="19" t="str">
         <f>TRIM(E7)</f>
@@ -18454,16 +18513,16 @@
       <c r="A1409" s="19"/>
       <c r="B1409" s="19"/>
       <c r="C1409" s="19" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D1409" s="35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E1409" s="19" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F1409" s="19" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G1409" s="19" t="s">
         <v>100</v>
@@ -18472,7 +18531,7 @@
         <v>101</v>
       </c>
       <c r="I1409" s="19" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="J1409" s="20" t="s">
         <v>102</v>
@@ -18484,25 +18543,25 @@
         <v>104</v>
       </c>
       <c r="M1409" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N1409" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O1409" s="20" t="s">
         <v>105</v>
       </c>
       <c r="P1409" s="33" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="Q1409" s="34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="R1409" s="19" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="S1409" s="21" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="T1409" s="19"/>
       <c r="U1409" s="19"/>
@@ -18528,7 +18587,7 @@
     </row>
     <row r="1416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1416" s="26" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C1416" s="1" t="s">
         <v>158</v>
@@ -18621,7 +18680,7 @@
         <v>170</v>
       </c>
       <c r="D1432" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1433" spans="2:18" x14ac:dyDescent="0.2">
@@ -18629,7 +18688,7 @@
         <v>171</v>
       </c>
       <c r="D1433" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1436" spans="2:18" x14ac:dyDescent="0.2">
@@ -18705,37 +18764,37 @@
         <v>174</v>
       </c>
       <c r="D1437" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1437" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1437" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1437" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E1437" s="1" t="s">
+      <c r="H1437" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F1437" s="1" t="s">
+      <c r="I1437" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G1437" s="2" t="s">
+      <c r="J1437" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K1437" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H1437" s="2" t="s">
+      <c r="L1437" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I1437" s="2" t="s">
+      <c r="M1437" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J1437" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K1437" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L1437" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="M1437" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="N1437" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O1437" s="2" t="e">
         <v>#VALUE!</v>
@@ -18747,7 +18806,7 @@
         <v>#NUM!</v>
       </c>
       <c r="R1437" s="36" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="1440" spans="2:18" x14ac:dyDescent="0.2">
@@ -18757,11 +18816,27 @@
       <c r="C1440" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="D1440" s="1">
+        <f>VALUE("0.33")</f>
+        <v>0.33</v>
+      </c>
+      <c r="E1440" s="1">
+        <f>VALUE("$1,000")</f>
+        <v>1000</v>
+      </c>
+      <c r="G1440" s="1"/>
+      <c r="H1440" s="1"/>
     </row>
     <row r="1441" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1441" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="D1441" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="E1441" s="1">
+        <v>1000</v>
+      </c>
     </row>
     <row r="1444" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1444" s="1" t="s">
@@ -18771,25 +18846,72 @@
         <v>179</v>
       </c>
       <c r="D1444" s="1">
-        <f>VALUE("0.33")</f>
-        <v>0.33</v>
+        <f>VAR(B7:B9,C7:C9,C10:C11)</f>
+        <v>1.1440985357553568</v>
       </c>
       <c r="E1444" s="1">
-        <f>VALUE("$1,000")</f>
-        <v>1000</v>
-      </c>
-      <c r="G1444" s="1"/>
-      <c r="H1444" s="1"/>
+        <f>VAR(B14:B16,D15:D17,E15)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F1444" s="1" t="e">
+        <f>VAR(E15:E17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G1444" s="2">
+        <f>VAR("1","2")</f>
+        <v>0.5</v>
+      </c>
+      <c r="H1444" s="2" t="e">
+        <f>VAR(D14:D15,E13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I1444" s="2">
+        <f>VAR(F10,F8)</f>
+        <v>0.49999000004999994</v>
+      </c>
+      <c r="J1444" s="2">
+        <f>VAR(F8:G10)</f>
+        <v>1.9999999991653392E+19</v>
+      </c>
+      <c r="K1444" s="2">
+        <f>VAR(TRUE, FALSE, TRUE)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="L1444" s="2">
+        <f>VAR(1,2,3,E20)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="1445" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1445" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D1445" s="1">
-        <v>0.33</v>
+        <v>1.144098536</v>
       </c>
       <c r="E1445" s="1">
-        <v>1000</v>
+        <v>0.5</v>
+      </c>
+      <c r="F1445" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G1445" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H1445" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I1445" s="2">
+        <v>0.49998999999999999</v>
+      </c>
+      <c r="J1445" s="43">
+        <v>2E+19</v>
+      </c>
+      <c r="K1445" s="2">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="L1445" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="1448" spans="2:12" x14ac:dyDescent="0.2">
@@ -18799,74 +18921,11 @@
       <c r="C1448" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D1448" s="1">
-        <f>VAR(B7:B9,C7:C9,C10:C11)</f>
-        <v>1.1440985357553568</v>
-      </c>
-      <c r="E1448" s="1">
-        <f>VAR(B14:B16,D15:D17,E15)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F1448" s="1" t="e">
-        <f>VAR(E15:E17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G1448" s="2">
-        <f>VAR("1","2")</f>
-        <v>0.5</v>
-      </c>
-      <c r="H1448" s="2" t="e">
-        <f>VAR(D14:D15,E13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I1448" s="2">
-        <f>VAR(F10,F8)</f>
-        <v>0.49999000004999994</v>
-      </c>
-      <c r="J1448" s="2">
-        <f>VAR(F8:G10)</f>
-        <v>1.9999999991653392E+19</v>
-      </c>
-      <c r="K1448" s="2">
-        <f>VAR(TRUE, FALSE, TRUE)</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="L1448" s="2">
-        <f>VAR(1,2,3,E20)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="1449" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1449" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D1449" s="1">
-        <v>1.144098536</v>
-      </c>
-      <c r="E1449" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F1449" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G1449" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H1449" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I1449" s="2">
-        <v>0.49998999999999999</v>
-      </c>
-      <c r="J1449" s="43">
-        <v>2E+19</v>
-      </c>
-      <c r="K1449" s="2">
-        <v>0.33333333300000001</v>
-      </c>
-      <c r="L1449" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="1452" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1452" s="1" t="s">
@@ -18875,11 +18934,74 @@
       <c r="C1452" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="D1452" s="1">
+        <f>VARP(B7:B9,C7:C9,C10:C11)</f>
+        <v>1.0010862187859373</v>
+      </c>
+      <c r="E1452" s="1">
+        <f>VARP(B14:B16,D15:D17,E15)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F1452" s="1" t="e">
+        <f>VARP(E15:E17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G1452" s="2">
+        <f>VARP("1","2")</f>
+        <v>0.25</v>
+      </c>
+      <c r="H1452" s="2" t="e">
+        <f>VARP(D14:D15,E13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I1452" s="2">
+        <f>VARP(F10,F8)</f>
+        <v>0.24999500002499997</v>
+      </c>
+      <c r="J1452" s="2">
+        <f>VARP(F8:G10)</f>
+        <v>1.5999999993322713E+19</v>
+      </c>
+      <c r="K1452" s="2">
+        <f>VARP(TRUE, FALSE, TRUE)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L1452" s="2">
+        <f>VARP(1,2,3,E28)</f>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="1453" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1453" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="D1453" s="1">
+        <v>1.0010862190000001</v>
+      </c>
+      <c r="E1453" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F1453" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G1453" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H1453" s="2" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I1453" s="2">
+        <v>0.24999499999999999</v>
+      </c>
+      <c r="J1453" s="43">
+        <v>1.6E+19</v>
+      </c>
+      <c r="K1453" s="2">
+        <v>0.222222222</v>
+      </c>
+      <c r="L1453" s="2">
+        <v>0.66666666699999999</v>
+      </c>
     </row>
     <row r="1456" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1456" s="1" t="s">
@@ -18888,76 +19010,13 @@
       <c r="C1456" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D1456" s="1">
-        <f>VARP(B7:B9,C7:C9,C10:C11)</f>
-        <v>1.0010862187859373</v>
-      </c>
-      <c r="E1456" s="1">
-        <f>VARP(B14:B16,D15:D17,E15)</f>
-        <v>0.25</v>
-      </c>
-      <c r="F1456" s="1" t="e">
-        <f>VARP(E15:E17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G1456" s="2">
-        <f>VARP("1","2")</f>
-        <v>0.25</v>
-      </c>
-      <c r="H1456" s="2" t="e">
-        <f>VARP(D14:D15,E13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I1456" s="2">
-        <f>VARP(F10,F8)</f>
-        <v>0.24999500002499997</v>
-      </c>
-      <c r="J1456" s="2">
-        <f>VARP(F8:G10)</f>
-        <v>1.5999999993322713E+19</v>
-      </c>
-      <c r="K1456" s="2">
-        <f>VARP(TRUE, FALSE, TRUE)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L1456" s="2">
-        <f>VARP(1,2,3,E28)</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="1457" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1457" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C1457" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D1457" s="1">
-        <v>1.0010862190000001</v>
-      </c>
-      <c r="E1457" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F1457" s="1" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G1457" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="H1457" s="2" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I1457" s="2">
-        <v>0.24999499999999999</v>
-      </c>
-      <c r="J1457" s="43">
-        <v>1.6E+19</v>
-      </c>
-      <c r="K1457" s="2">
-        <v>0.222222222</v>
-      </c>
-      <c r="L1457" s="2">
-        <v>0.66666666699999999</v>
-      </c>
-    </row>
-    <row r="1460" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1460" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1460" s="1" t="s">
         <v>190</v>
       </c>
@@ -18965,232 +19024,219 @@
         <v>191</v>
       </c>
     </row>
-    <row r="1461" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1461" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C1461" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="1464" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1464" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1464" s="1" t="s">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="C1464" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="1465" spans="2:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D1464" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="1465" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C1465" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1468" spans="2:12" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D1465" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="1468" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1468" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1468" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1468" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="1469" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C1469" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1469" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="1472" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B1472" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1472" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1472" s="1">
+      <c r="D1468" s="1">
         <f>VLOOKUP(534,$B$6:$H$12,2)</f>
         <v>1.0000100000000001</v>
       </c>
-      <c r="E1472" s="1" t="str">
+      <c r="E1468" s="1" t="str">
         <f>VLOOKUP(534,$B$6:$H$12,4)</f>
         <v xml:space="preserve">endsWithSpace </v>
       </c>
-      <c r="F1472" s="1" t="str">
+      <c r="F1468" s="1" t="str">
         <f>VLOOKUP(534,$B$6:$H$12,4, TRUE)</f>
         <v xml:space="preserve">endsWithSpace </v>
       </c>
-      <c r="G1472" s="1" t="e">
+      <c r="G1468" s="1" t="e">
         <f>VLOOKUP(-1,$B$6:$H$12,4, TRUE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1473" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1469" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C1469" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1469" s="1">
+        <v>1.0000100000000001</v>
+      </c>
+      <c r="E1469" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F1469" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G1469" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1472" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1472" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1472" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1473" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1473" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1473" s="1">
-        <v>1.0000100000000001</v>
-      </c>
-      <c r="E1473" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F1473" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G1473" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1476" spans="2:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1476" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1476" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1476" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1477" spans="2:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1477" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1480" spans="2:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1480" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1480" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1480" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1481" spans="2:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1481" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1481" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1484" spans="2:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1484" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1484" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1485" spans="2:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D1484" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="1485" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C1485" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="1488" spans="2:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D1485" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="1488" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1488" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1488" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1488" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1489" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1489" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1489" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1492" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1492" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C1492" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1492" s="1" t="s">
-        <v>247</v>
+        <v>23</v>
+      </c>
+      <c r="D1492" s="1">
+        <f>YEAR(C20)</f>
+        <v>2000</v>
+      </c>
+      <c r="E1492" s="1">
+        <f>YEAR(1)</f>
+        <v>1900</v>
+      </c>
+      <c r="F1492" s="1">
+        <f>YEAR(0)</f>
+        <v>1900</v>
+      </c>
+      <c r="G1492" s="1" t="e">
+        <f>YEAR(-10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="H1492" s="2" t="e">
+        <f>YEAR(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I1492" s="2">
+        <f>YEAR(C20+2000)</f>
+        <v>2006</v>
       </c>
     </row>
     <row r="1493" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1493" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1493" s="1" t="s">
-        <v>247</v>
+        <v>24</v>
+      </c>
+      <c r="D1493" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E1493" s="1">
+        <v>1900</v>
+      </c>
+      <c r="F1493" s="1">
+        <v>1900</v>
+      </c>
+      <c r="G1493" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H1493" s="2" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="I1493" s="2">
+        <v>2006</v>
       </c>
     </row>
     <row r="1496" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1496" s="1" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="C1496" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1496" s="1">
-        <f>YEAR(C20)</f>
-        <v>2000</v>
-      </c>
-      <c r="E1496" s="1">
-        <f>YEAR(1)</f>
-        <v>1900</v>
-      </c>
-      <c r="F1496" s="1">
-        <f>YEAR(0)</f>
-        <v>1900</v>
-      </c>
-      <c r="G1496" s="1" t="e">
-        <f>YEAR(-10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H1496" s="2" t="e">
-        <f>YEAR(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I1496" s="2">
-        <f>YEAR(C20+2000)</f>
-        <v>2006</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1497" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1497" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1497" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E1497" s="1">
-        <v>1900</v>
-      </c>
-      <c r="F1497" s="1">
-        <v>1900</v>
-      </c>
-      <c r="G1497" s="1" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H1497" s="2" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="I1497" s="2">
-        <v>2006</v>
+        <v>221</v>
       </c>
     </row>
     <row r="1500" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1500" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1500" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="1501" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C1501" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="1504" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1504" s="25" t="s">
-        <v>1191</v>
+      <c r="B1500" s="25" t="s">
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -19204,7 +19250,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D725" r:id="rId1"/>
+    <hyperlink ref="D725" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -19214,7 +19260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X34"/>
   <sheetViews>
@@ -19894,7 +19940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -20327,7 +20373,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B19" s="15">
         <f t="shared" ref="B19:G19" si="7">VAR(B1:B10)</f>
@@ -20363,7 +20409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
